--- a/data/trans_orig/MOL_RUIDO_TRAF_DIA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_TRAF_DIA-Edad-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,48 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -105,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,454 +457,494 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del tráfico durante el día en el interior de la vivienda (tasa de respuesta: 99,74%)</t>
+          <t>Molestia del ruido del tráfico durante el día en el interior de la vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>16/24</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>16-24 años</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>2.148485111745495</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>2.627502370827097</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.382628385475247</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 2,55</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 3,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 2,71</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.730748628556558</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>2.158158684450465</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.098882603789997</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>25/34</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.550843127169295</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>3.115557991839199</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.708404862781776</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>25-34 años</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 3,5</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 3,89</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 3,54</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>3.07471037525346</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>3.389688975588218</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>3.23487279568034</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35/44</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2.685889390098852</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>2.960326260452026</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.940820811919803</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>3.49659914764519</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>3.894753726704214</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>3.541592137759963</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>35-44 años</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 3,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 3,77</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,92; 3,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>45/54</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>3.137599177778996</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>3.293883383926917</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>3.213451272339256</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>2.732059913850307</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>2.871964642275441</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>2.916646068880664</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>3.630855322616626</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>3.771272314139599</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>3.539183387811231</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>45-54 años</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 3,61</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 3,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 3,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55/64</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>3.109428711051903</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>3.431077325609134</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>3.271743318784787</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2.65241350113509</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>2.945346124539654</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>2.912484572600904</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>3.605534615087465</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>3.868024353590921</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>3.583004398605057</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>55-64 años</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 3,58</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 3,83</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 3,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>3.089908167484373</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>3.306293551091161</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>3.206958826024383</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>2.619676012419531</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>2.853445934901336</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>2.850742115381745</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>3.579339290241673</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>3.827323610633652</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>3.563080986261271</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>65-74 años</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 3,54</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 3,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 3,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>2.988248315558848</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>2.945337707281387</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>2.964169095670643</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>2.358429331739447</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>2.457373520402411</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>2.615623046190889</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>3.539760320533905</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>3.491545084199259</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>3.379147351215503</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>75 y más años</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 3,49</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,8; 2,79</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 2,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>2.86738579920931</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>2.289496209528224</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>2.507323390264854</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>2.334164435100606</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>1.802251500453444</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>2.124216170920204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>3.488577143216508</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>2.794323931429929</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>2.899699609195517</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 3,17</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 3,27</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,92; 3,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C25" s="4" t="n">
+        <v>2.9783727008057</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>3.088438950197593</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>3.036359019769708</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>2.784788499555736</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>2.904110551341793</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>2.917745100785567</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>3.169585620095909</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>3.269449370388585</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>3.162886500098725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -952,15 +952,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
